--- a/biology/Médecine/Cartilage_cricoïde/Cartilage_cricoïde.xlsx
+++ b/biology/Médecine/Cartilage_cricoïde/Cartilage_cricoïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cartilage_crico%C3%AFde</t>
+          <t>Cartilage_cricoïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cartilage cricoïde (du grec κρίκος, « krícos » signifiant « anneau ») (ou cartilage basal de Ludwig) est un des 3 cartilages impairs du larynx qui en constitue sa base.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cartilage_crico%C3%AFde</t>
+          <t>Cartilage_cricoïde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cartilage cricoïde est un cartilage très solide en forme de bague. Son orifice inférieur est circulaire et son orifice supérieur est ovalaire de grand axe antéro-postérieur.
 Le corps de la bague est constitué en avant par l'arc du cartilage cricoïde. L'arc porte latéralement et en bas deux éminences formant la facette articulaire thyroïdienne constituant  avec les cornes inférieures du cartilage thyroïde, les articulations crico-thyroïdiennes.
